--- a/dependencies/brucella/ceti2/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/brucella/ceti2/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/ceti2/script_dependents/python/script2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/ceti2/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479ED83D-F4D2-1F4C-B006-FA4F909FB56E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80180" yWindow="460" windowWidth="21120" windowHeight="16220"/>
+    <workbookView xWindow="80180" yWindow="460" windowWidth="21120" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,18 +36,6 @@
     <t>Absolute position</t>
   </si>
   <si>
-    <t>gi|560146340|ref|NC_022905.1|-1024529</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1024496</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1013570</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1006575</t>
-  </si>
-  <si>
     <t>Bceti2-01</t>
   </si>
   <si>
@@ -58,11 +47,23 @@
   <si>
     <t>Bceti2-04</t>
   </si>
+  <si>
+    <t>NC_022905.1-1024529</t>
+  </si>
+  <si>
+    <t>NC_022905.1-1024496</t>
+  </si>
+  <si>
+    <t>NC_022905.1-1013570</t>
+  </si>
+  <si>
+    <t>NC_022905.1-1006575</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -772,10 +773,10 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="103"/>
-    <cellStyle name="Normal 3" xfId="102"/>
+    <cellStyle name="Normal 2" xfId="103" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 3" xfId="102" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Note 2" xfId="104"/>
+    <cellStyle name="Note 2" xfId="104" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -1080,10 +1081,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1101,34 +1104,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
